--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="152">
   <si>
     <t>窗户台面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拉垃圾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清理屋内旧家具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,11 +522,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月1日送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月1日量</t>
+    <t>搬砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色,客厅窗户口,单口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色,卫生间,双口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没有定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理垃圾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请贴砖人吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手池水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台边线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +662,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,8 +701,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -675,6 +781,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,25 +878,73 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16:K18"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1116,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>82</v>
@@ -1125,13 +1303,13 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -1147,30 +1325,28 @@
         <v>10</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H12" si="0">E2 * F2</f>
+        <f t="shared" ref="H2:H15" si="0">E2 * F2</f>
         <v>540</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="24">
         <f>SUM(H2:H4)</f>
         <v>600</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="24">
         <v>600</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="25">
         <f>I2-J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="17"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="11" t="s">
         <v>44</v>
       </c>
@@ -1187,17 +1363,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="27"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
@@ -1214,19 +1390,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1245,27 +1421,25 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I5" s="18">
-        <f>SUM(H5:H10)</f>
-        <v>3900</v>
-      </c>
-      <c r="J5" s="18">
-        <v>200</v>
-      </c>
-      <c r="K5" s="24">
+      <c r="I5" s="28">
+        <f>SUM(H5:H11)</f>
+        <v>3930</v>
+      </c>
+      <c r="J5" s="28">
+        <v>3930</v>
+      </c>
+      <c r="K5" s="28">
         <f>I5-J5</f>
-        <v>3700</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
@@ -1282,17 +1456,17 @@
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="25"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
@@ -1309,17 +1483,17 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="25"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1336,17 +1510,17 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="25"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1363,17 +1537,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1390,796 +1564,1025 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="19">
+        <v>15</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>880</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>2</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-      <c r="I11" s="22">
-        <f>SUM(H11:H12)</f>
-        <v>2510</v>
-      </c>
-      <c r="J11" s="17">
-        <v>200</v>
-      </c>
-      <c r="K11" s="22">
-        <f>I11-J11</f>
-        <v>2310</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="I12" s="25">
+        <f>SUM(H12:H15)</f>
+        <v>3470</v>
+      </c>
+      <c r="J12" s="25">
+        <v>2700</v>
+      </c>
+      <c r="K12" s="25">
+        <f>I12-J12</f>
+        <v>770</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="24"/>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="11">
+        <v>835</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>835</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="17"/>
-      <c r="B12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="11">
-        <v>750</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="C14" s="26"/>
+      <c r="D14" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="20">
+        <v>470</v>
+      </c>
+      <c r="F14" s="20">
         <v>1</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G14" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="20">
+        <v>405</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E16" s="10">
         <v>70</v>
       </c>
-      <c r="F13" s="10">
-        <v>19</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="F16" s="10">
+        <v>20.7</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="10">
-        <f>E13 * F13</f>
-        <v>1330</v>
-      </c>
-      <c r="I13" s="18">
-        <f>SUM(H13:H15)</f>
-        <v>1600</v>
-      </c>
-      <c r="J13" s="18">
-        <v>200</v>
-      </c>
-      <c r="K13" s="18">
-        <f>I13-J13</f>
-        <v>1400</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="10">
-        <v>10</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="10">
-        <f>E14 * F14</f>
-        <v>30</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="18"/>
-      <c r="B15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="10">
-        <v>80</v>
-      </c>
-      <c r="F15" s="10">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="10">
-        <f>E15 * F15</f>
-        <v>240</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1336</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <f>E16 * F16</f>
-        <v>1336</v>
-      </c>
-      <c r="I16" s="17">
-        <f>SUM(H16:H18)</f>
-        <v>1454</v>
-      </c>
-      <c r="J16" s="17">
-        <v>1454</v>
-      </c>
-      <c r="K16" s="22">
+        <v>1449</v>
+      </c>
+      <c r="I16" s="28">
+        <f>SUM(H16:H20)</f>
+        <v>1769</v>
+      </c>
+      <c r="J16" s="28">
+        <v>1769</v>
+      </c>
+      <c r="K16" s="28">
         <f>I16-J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="23"/>
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="10">
+        <f>E17 * F17</f>
+        <v>30</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="23"/>
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="10">
+        <v>80</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="10">
+        <f>E18 * F18</f>
+        <v>240</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="19">
+        <v>50</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="17"/>
-      <c r="B17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="17"/>
-      <c r="B18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="11">
-        <v>10</v>
-      </c>
-      <c r="F18" s="11">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="11">
-        <v>118</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="10"/>
+      <c r="H19" s="19">
+        <f>E19 * F19</f>
+        <v>50</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="18"/>
-      <c r="B20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="10"/>
+      <c r="B20" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
+        <v>5</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="32" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="17" t="s">
-        <v>60</v>
+      <c r="A21" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1336</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="11">
+        <f>E21 * F21</f>
+        <v>1336</v>
+      </c>
+      <c r="I21" s="24">
+        <f>SUM(H21:H23)</f>
+        <v>1454</v>
+      </c>
+      <c r="J21" s="24">
+        <v>1454</v>
+      </c>
+      <c r="K21" s="25">
+        <f>I21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="17"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="24"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="26"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="A23" s="24"/>
       <c r="B23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="11">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="11">
+        <v>118</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="17"/>
-      <c r="B24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="11"/>
+      <c r="A24" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="18"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="19"/>
-      <c r="B26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="10"/>
+      <c r="A26" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="19"/>
-      <c r="B27" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="10"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="17" t="s">
-        <v>21</v>
+      <c r="A28" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="C28" s="26"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="17"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="C29" s="26"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="10"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="18"/>
-      <c r="B31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
-        <v>2</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="10"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="18"/>
-      <c r="B32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="18"/>
+      <c r="A32" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="28"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
+      <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="18"/>
-      <c r="B33" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="18"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="29"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
+      <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="18"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="C34" s="29"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
+      <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="18"/>
-      <c r="B35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="10"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="11"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="10"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="19"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="19"/>
-      <c r="B38" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="10"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
+        <v>2</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="19"/>
-      <c r="B39" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="10"/>
+      <c r="A39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="19"/>
-      <c r="B40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="10"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="19"/>
+      <c r="A41" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="B41" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="C41" s="28"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="11"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
+        <v>2</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="20"/>
-      <c r="B43" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="11"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="A44" s="29"/>
       <c r="B44" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>125</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C44" s="29"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="15"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="30"/>
+      <c r="B46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="21"/>
+      <c r="B49" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="21"/>
+      <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="21"/>
+      <c r="B51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="21"/>
+      <c r="B52" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="35"/>
+      <c r="B54" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6">
-        <f>SUM(I2:I35)</f>
-        <v>10064</v>
-      </c>
-      <c r="J45" s="6">
-        <f>SUM(J2:J35)</f>
-        <v>2654</v>
-      </c>
-      <c r="K45" s="6">
-        <f>SUM(K2:K44)</f>
-        <v>7410</v>
-      </c>
-      <c r="L45" s="6"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="37">
+        <f>SUM(I2:I46)</f>
+        <v>11223</v>
+      </c>
+      <c r="J56" s="37">
+        <f>SUM(J2:J46)</f>
+        <v>10453</v>
+      </c>
+      <c r="K56" s="37">
+        <f>SUM(K2:K55)</f>
+        <v>770</v>
+      </c>
+      <c r="L56" s="37"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="36" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="K37:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="K26:K31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="K48:K52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,13 +2851,13 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -2462,16 +2865,16 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="21"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -2479,8 +2882,8 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:13">
@@ -2589,35 +2992,35 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="31" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="21"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:13">
@@ -2727,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2748,12 +3151,12 @@
         <v>115</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -2761,7 +3164,34 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>141</v>
+      </c>
+      <c r="C3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="装修" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="204">
   <si>
     <t>窗户台面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连接管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>床头柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,9 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预计花费</t>
-  </si>
-  <si>
     <t>安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,10 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爸爸帮买的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,11 +742,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>固定式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小厨宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里斯顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防爆玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东买的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两用型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固定式</t>
+    <t>洗手池连接管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒连接管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒明转接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九牧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -765,35 +818,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小厨宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里斯顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧吸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防爆玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东买的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买水</t>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸帮买的,200+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +838,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,14 +878,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,12 +912,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,148 +1095,148 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,11 +1534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1526,11 +1551,11 @@
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>70</v>
       </c>
@@ -1562,25 +1587,22 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="49" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1599,26 +1621,25 @@
         <f t="shared" ref="H2:H15" si="0">E2 * F2</f>
         <v>540</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="47">
         <f>SUM(H2:H4)</f>
         <v>600</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="47">
         <v>600</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="42">
         <f>I2-J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="49"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="47"/>
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1635,18 +1656,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="49"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="47"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
@@ -1663,20 +1683,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="50" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1695,26 +1714,25 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="48">
         <f>SUM(H5:H11)</f>
         <v>3930</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="48">
         <v>3930</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="48">
         <f>I5-J5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="50"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="51"/>
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1731,18 +1749,17 @@
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="50"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="51"/>
       <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
@@ -1759,18 +1776,17 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="50"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="51"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1787,18 +1803,17 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="50"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="51"/>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1815,18 +1830,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="50"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="51"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1843,20 +1857,19 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="E11" s="18">
         <v>15</v>
@@ -1865,26 +1878,25 @@
         <v>2</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="49" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1903,26 +1915,25 @@
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="42">
         <f>SUM(H12:H15)</f>
         <v>3470</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="42">
         <v>2700</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="42">
         <f>I12-J12</f>
         <v>770</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="49"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="47"/>
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="10" t="s">
         <v>35</v>
       </c>
@@ -1939,20 +1950,19 @@
         <f t="shared" si="0"/>
         <v>835</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="16"/>
       <c r="B14" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="41"/>
+        <v>120</v>
+      </c>
+      <c r="C14" s="43"/>
       <c r="D14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="19">
         <v>470</v>
@@ -1961,26 +1971,25 @@
         <v>1</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="16"/>
       <c r="B15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="42"/>
+        <v>121</v>
+      </c>
+      <c r="C15" s="52"/>
       <c r="D15" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="19">
         <v>405</v>
@@ -1989,26 +1998,25 @@
         <v>1</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="50" t="s">
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="48" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2027,26 +2035,25 @@
         <f>E16 * F16</f>
         <v>1449</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="48">
         <f>SUM(H16:H20)</f>
         <v>1769</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="48">
         <v>1769</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="48">
         <f>I16-J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="50"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="51"/>
       <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2063,20 +2070,19 @@
         <f>E17 * F17</f>
         <v>30</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="50"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="51"/>
       <c r="B18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="9">
         <v>80</v>
@@ -2085,26 +2091,25 @@
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="9">
         <f>E18 * F18</f>
         <v>240</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="47"/>
+        <v>118</v>
+      </c>
+      <c r="C19" s="49"/>
       <c r="D19" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="18">
         <v>50</v>
@@ -2113,55 +2118,53 @@
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" s="18">
         <f>E19 * F19</f>
         <v>50</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18">
         <v>5</v>
       </c>
       <c r="G20" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="49" t="s">
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="E21" s="10">
         <v>1336</v>
@@ -2170,45 +2173,43 @@
         <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21" s="10">
         <f>E21 * F21</f>
         <v>1336</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="47">
         <f>SUM(H21:H23)</f>
         <v>1454</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="47">
         <v>1454</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="42">
         <f>I21-J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="49"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="47"/>
       <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="49"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="47"/>
       <c r="B23" s="10" t="s">
         <v>71</v>
       </c>
@@ -2230,175 +2231,159 @@
       <c r="H23" s="10">
         <v>118</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="51" t="s">
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="55" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50">
-        <v>11000</v>
-      </c>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="55"/>
       <c r="B25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="40" t="s">
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>148</v>
+      <c r="C26" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="40">
+      <c r="H26" s="42">
         <v>3380</v>
       </c>
-      <c r="I26" s="40">
-        <v>3380</v>
-      </c>
-      <c r="J26" s="40">
-        <v>3380</v>
-      </c>
-      <c r="K26" s="40">
+      <c r="I26" s="42">
+        <f>SUM(H26:H28)</f>
+        <v>3570</v>
+      </c>
+      <c r="J26" s="42">
+        <v>3570</v>
+      </c>
+      <c r="K26" s="42">
         <v>0</v>
       </c>
-      <c r="L26" s="40">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="41"/>
+      <c r="L26" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="43"/>
       <c r="B27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="34">
+      <c r="D28" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28">
         <v>190</v>
       </c>
-      <c r="J28" s="34">
-        <v>190</v>
-      </c>
-      <c r="K28" s="34">
-        <v>0</v>
-      </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="43" t="s">
-        <v>137</v>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="43">
+      <c r="C29" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="44">
         <v>1550</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="44">
         <v>1</v>
       </c>
-      <c r="G29" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="43">
+      <c r="G29" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="44">
         <v>1550</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="44">
         <v>1550</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="44">
         <v>550</v>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="44">
         <v>1000</v>
       </c>
-      <c r="L29" s="46">
-        <v>1500</v>
-      </c>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="44"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="45"/>
       <c r="B30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="45"/>
+        <v>140</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
@@ -2406,688 +2391,734 @@
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="45"/>
-      <c r="L30" s="47">
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="45"/>
+      <c r="B31" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="45"/>
+      <c r="B32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18">
+        <v>329</v>
+      </c>
+      <c r="F32" s="34">
+        <v>1</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="34">
+        <v>329</v>
+      </c>
+      <c r="I32" s="44">
+        <f>SUM(H32:H36)</f>
+        <v>547</v>
+      </c>
+      <c r="J32" s="44">
+        <v>547</v>
+      </c>
+      <c r="K32" s="44">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="45"/>
+      <c r="B33" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41">
+        <v>36</v>
+      </c>
+      <c r="F33" s="41">
+        <v>1</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="41">
+        <v>36</v>
+      </c>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="45"/>
+      <c r="B34" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41">
+        <v>79</v>
+      </c>
+      <c r="F34" s="41">
+        <v>1</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="41">
+        <v>79</v>
+      </c>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="41"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="45"/>
+      <c r="B35" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18">
+        <v>29</v>
+      </c>
+      <c r="F35" s="34">
+        <v>1</v>
+      </c>
+      <c r="G35" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="44"/>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="38">
+      <c r="H35" s="41">
+        <v>29</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="45"/>
+      <c r="B36" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18">
+        <v>37</v>
+      </c>
+      <c r="F36" s="34">
         <v>2</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="47">
-        <v>100</v>
-      </c>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="44"/>
-      <c r="B32" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="47">
-        <v>300</v>
-      </c>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="44"/>
-      <c r="B33" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="47">
-        <v>60</v>
-      </c>
-      <c r="M33" s="18"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="44"/>
-      <c r="B34" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="48">
-        <v>50</v>
-      </c>
-      <c r="M34" s="18"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="44"/>
-      <c r="B35" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="46" t="s">
+      <c r="G36" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36" s="34">
+        <v>74</v>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="45"/>
+      <c r="B37" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34">
+        <v>1388</v>
+      </c>
+      <c r="F37" s="34">
+        <v>1</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="34">
+        <v>1388</v>
+      </c>
+      <c r="I37" s="48">
+        <v>1468</v>
+      </c>
+      <c r="J37" s="48">
+        <v>1468</v>
+      </c>
+      <c r="K37" s="48">
+        <v>0</v>
+      </c>
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="45"/>
+      <c r="B38" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38">
-        <v>1388</v>
-      </c>
-      <c r="F35" s="38">
+      <c r="C38" s="49"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34">
+        <v>80</v>
+      </c>
+      <c r="F38" s="34">
         <v>1</v>
       </c>
-      <c r="G35" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="38">
-        <v>1388</v>
-      </c>
-      <c r="I35" s="46">
-        <v>1468</v>
-      </c>
-      <c r="J35" s="46">
-        <v>1468</v>
-      </c>
-      <c r="K35" s="46">
+      <c r="G38" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="34">
+        <v>80</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="34"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="45"/>
+      <c r="B39" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34">
+        <v>20</v>
+      </c>
+      <c r="F39" s="34">
+        <v>1</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="34">
+        <v>20</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="34"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="46"/>
+      <c r="B40" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="37">
+        <v>39.9</v>
+      </c>
+      <c r="F40" s="37">
+        <v>2</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="I40" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="J40" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="K40" s="36">
         <v>0</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="38"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="44"/>
-      <c r="B36" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38">
-        <v>80</v>
-      </c>
-      <c r="F36" s="38">
-        <v>1</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" s="38">
-        <v>80</v>
-      </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="38"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="45"/>
-      <c r="B37" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38">
-        <v>20</v>
-      </c>
-      <c r="F37" s="38">
-        <v>1</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="38">
-        <v>20</v>
-      </c>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="38"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="66" t="s">
+      <c r="L40" s="37"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="49">
+      <c r="C41" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="47">
         <v>200</v>
       </c>
-      <c r="J38" s="49">
+      <c r="J41" s="47">
         <v>200</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K41" s="47">
         <v>0</v>
       </c>
-      <c r="L38" s="49">
-        <v>100</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="67"/>
-      <c r="B39" s="10" t="s">
+      <c r="L41" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="54"/>
+      <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9">
-        <v>230</v>
-      </c>
-      <c r="F40" s="9">
-        <v>1</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" s="9">
-        <v>230</v>
-      </c>
-      <c r="I40" s="46">
-        <f>SUM(H40:H45)</f>
-        <v>950</v>
-      </c>
-      <c r="J40" s="46">
-        <v>950</v>
-      </c>
-      <c r="K40" s="46">
-        <v>0</v>
-      </c>
-      <c r="L40" s="46">
-        <v>100</v>
-      </c>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="47"/>
-      <c r="B41" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>170</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="H41" s="9">
-        <v>170</v>
-      </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47">
-        <v>400</v>
-      </c>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="47"/>
-      <c r="B42" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9">
-        <v>170</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="9">
-        <v>170</v>
-      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="47"/>
       <c r="J42" s="47"/>
       <c r="K42" s="47"/>
-      <c r="L42" s="47">
-        <v>300</v>
-      </c>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="47"/>
-      <c r="B43" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>183</v>
-      </c>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" s="38" t="s">
-        <v>184</v>
+      <c r="G43" s="41" t="s">
+        <v>203</v>
       </c>
       <c r="H43" s="9">
-        <v>380</v>
-      </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47">
-        <v>100</v>
-      </c>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="47"/>
-      <c r="B44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="36"/>
+        <v>230</v>
+      </c>
+      <c r="I43" s="48">
+        <f>SUM(H43:H48)</f>
+        <v>950</v>
+      </c>
+      <c r="J43" s="48">
+        <v>950</v>
+      </c>
+      <c r="K43" s="48">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="49"/>
+      <c r="B44" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="51"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <v>170</v>
+      </c>
       <c r="F44" s="9">
         <v>1</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47">
-        <v>100</v>
-      </c>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="48"/>
-      <c r="B45" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="37"/>
+      <c r="G44" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="9">
+        <v>170</v>
+      </c>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="49"/>
+      <c r="B45" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="51"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <v>170</v>
+      </c>
       <c r="F45" s="9">
         <v>1</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48">
-        <v>100</v>
-      </c>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="23" t="s">
+      <c r="G45" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H45" s="9">
+        <v>170</v>
+      </c>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="49"/>
+      <c r="B46" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="9">
+        <v>380</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="9">
+        <v>380</v>
+      </c>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="49"/>
+      <c r="B47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="50"/>
+      <c r="B48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9">
+        <v>2</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="C49" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="10">
         <v>140</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F49" s="10">
         <v>1</v>
       </c>
-      <c r="G46" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" s="10">
+      <c r="G49" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" s="10">
         <v>140</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I49" s="31">
         <v>140</v>
       </c>
-      <c r="J46" s="35">
+      <c r="J49" s="31">
         <v>140</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K49" s="12">
         <v>0</v>
       </c>
-      <c r="L46" s="21"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="52" t="s">
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B50" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="9">
+      <c r="E50" s="9">
         <v>664</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52">
-        <v>2000</v>
-      </c>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52">
-        <v>3000</v>
-      </c>
-      <c r="M47" s="43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="52"/>
-      <c r="B48" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1549</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="44"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="52"/>
-      <c r="B49" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="9">
-        <v>966</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="45"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="52"/>
-      <c r="B50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="52"/>
-      <c r="B51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="38" t="s">
+      <c r="I50" s="56"/>
+      <c r="J50" s="56">
+        <v>2000</v>
+      </c>
+      <c r="K50" s="56"/>
+      <c r="L50" s="44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="56"/>
+      <c r="B51" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1549</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52">
-        <v>200</v>
-      </c>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54">
-        <v>1000</v>
-      </c>
-      <c r="M52" s="10"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="53"/>
-      <c r="B53" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="10"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="23" t="s">
-        <v>116</v>
-      </c>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="56"/>
+      <c r="B52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="9">
+        <v>966</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="46"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="56"/>
+      <c r="B53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="56"/>
       <c r="B54" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="34" t="s">
+        <v>154</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="20">
-        <v>100</v>
-      </c>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="25" t="s">
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="57"/>
+      <c r="B56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="25">
-        <f>SUM(I2:I45)</f>
-        <v>18961</v>
-      </c>
-      <c r="J55" s="25">
-        <f>SUM(J2:J45)</f>
-        <v>17191</v>
-      </c>
-      <c r="K55" s="25">
-        <f>SUM(K2:K54)</f>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="23">
+        <f>SUM(I2:I57)</f>
+        <v>19722.8</v>
+      </c>
+      <c r="J58" s="23">
+        <f>SUM(J2:J57)</f>
+        <v>19952.8</v>
+      </c>
+      <c r="K58" s="23">
+        <f>SUM(K2:K57)</f>
         <v>1770</v>
       </c>
-      <c r="L55" s="32">
-        <f>SUM(L2:L54)</f>
-        <v>19710</v>
-      </c>
-      <c r="M55" s="25"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="24" t="s">
-        <v>133</v>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="22" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="M47:M49"/>
+  <mergeCells count="75">
+    <mergeCell ref="L50:L52"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L29:L34"/>
-    <mergeCell ref="L40:L45"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L20"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="K55:K56"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K45"/>
-    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K48"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="K26:K28"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="K12:K15"/>
     <mergeCell ref="K16:K20"/>
     <mergeCell ref="K5:K11"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="J40:J45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="I43:I48"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="I21:I23"/>
@@ -3109,12 +3140,14 @@
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="I5:I11"/>
     <mergeCell ref="J5:J11"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="G29:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3172,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>78</v>
@@ -3181,130 +3214,130 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="59">
+        <v>5400</v>
+      </c>
+      <c r="F2" s="38">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="59">
+        <v>5400</v>
+      </c>
+      <c r="I2" s="59">
+        <v>14100</v>
+      </c>
+      <c r="J2" s="59">
+        <v>2100</v>
+      </c>
+      <c r="K2" s="59">
+        <v>12000</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="60">
-        <v>5400</v>
-      </c>
-      <c r="F2" s="58">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="38">
+        <v>8760</v>
+      </c>
+      <c r="F4" s="38">
         <v>1</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="60">
-        <v>5400</v>
-      </c>
-      <c r="I2" s="60">
-        <v>14100</v>
-      </c>
-      <c r="J2" s="60">
-        <v>2100</v>
-      </c>
-      <c r="K2" s="60">
-        <v>12000</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="58">
-        <v>2</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="58"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="58">
-        <v>8760</v>
-      </c>
-      <c r="F4" s="58">
+      <c r="G4" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="38">
+        <v>8700</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="39">
+        <v>3400</v>
+      </c>
+      <c r="F5" s="39">
         <v>1</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="58">
-        <v>8700</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="65" t="s">
+      <c r="G5" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="65">
-        <v>3400</v>
-      </c>
-      <c r="F5" s="65">
-        <v>1</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="65">
+      <c r="H5" s="39">
         <v>4300</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="39">
         <v>4300</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="39">
         <v>2000</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="39">
         <v>2300</v>
       </c>
-      <c r="L5" s="65"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
@@ -3319,7 +3352,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:14">
@@ -3335,7 +3368,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:14">
@@ -3351,7 +3384,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:14">
@@ -3367,7 +3400,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:14">
@@ -3381,7 +3414,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="2"/>
     </row>
     <row r="21" spans="1:11">
@@ -3399,12 +3432,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3461,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>78</v>
@@ -3470,13 +3503,13 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="65" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -3484,17 +3517,17 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="55"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -3502,9 +3535,9 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:14">
@@ -3520,7 +3553,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="39"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:14">
@@ -3536,65 +3569,65 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="39"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="56">
+      <c r="C6" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="66">
         <v>2980</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="66">
         <v>1</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="56">
+      <c r="G6" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="66">
         <v>2980</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="66">
         <v>2980</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="66">
         <v>2980</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="66">
         <v>0</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>193</v>
+      <c r="L6" s="35" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:14">
@@ -3610,7 +3643,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:14">
@@ -3626,7 +3659,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:14">
@@ -3634,7 +3667,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3642,38 +3675,38 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="39"/>
+      <c r="B11" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="35"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="55">
+      <c r="I11" s="65">
         <v>1198</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="65">
         <v>1198</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="55"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>188</v>
+      <c r="C12" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -3682,19 +3715,19 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" s="39">
+      <c r="G12" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="35">
         <v>1198</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="39">
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="39" t="s">
-        <v>193</v>
+      <c r="L12" s="35" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3710,7 +3743,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="39"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="2"/>
     </row>
   </sheetData>
@@ -3799,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3812,18 +3845,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -3831,7 +3864,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>280</v>
@@ -3839,7 +3872,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>296</v>
@@ -3847,7 +3880,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -3855,7 +3888,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -3863,7 +3896,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <v>84</v>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="203">
   <si>
     <t>窗户台面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>油漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油漆补充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1034,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,39 +1157,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1203,15 +1211,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1230,13 +1229,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,11 +1533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1557,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1587,22 +1586,22 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="47" t="s">
-        <v>50</v>
+      <c r="A2" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1621,25 +1620,25 @@
         <f t="shared" ref="H2:H15" si="0">E2 * F2</f>
         <v>540</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="48">
         <f>SUM(H2:H4)</f>
         <v>600</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="48">
         <v>600</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="53">
         <f>I2-J2</f>
         <v>0</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1656,17 +1655,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="43"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
@@ -1683,19 +1682,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="52"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="51" t="s">
-        <v>51</v>
+      <c r="A5" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1714,25 +1713,25 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="49">
         <f>SUM(H5:H11)</f>
         <v>3930</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="49">
         <v>3930</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="49">
         <f>I5-J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="51"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1749,17 +1748,17 @@
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="51"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
@@ -1776,17 +1775,17 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="51"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1803,17 +1802,17 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="51"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1830,17 +1829,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="51"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1857,19 +1856,19 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="E11" s="18">
         <v>15</v>
@@ -1878,25 +1877,25 @@
         <v>2</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="47" t="s">
-        <v>52</v>
+      <c r="A12" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1915,25 +1914,25 @@
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="53">
         <f>SUM(H12:H15)</f>
         <v>3470</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="53">
         <v>2700</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="53">
         <f>I12-J12</f>
         <v>770</v>
       </c>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="10" t="s">
         <v>35</v>
       </c>
@@ -1950,19 +1949,19 @@
         <f t="shared" si="0"/>
         <v>835</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="16"/>
       <c r="B14" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="C14" s="54"/>
       <c r="D14" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="19">
         <v>470</v>
@@ -1971,25 +1970,25 @@
         <v>1</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="16"/>
       <c r="B15" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="52"/>
+        <v>120</v>
+      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="19">
         <v>405</v>
@@ -1998,26 +1997,26 @@
         <v>1</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="51" t="s">
-        <v>53</v>
+      <c r="A16" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>49</v>
+      <c r="C16" s="49" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>39</v>
@@ -2035,25 +2034,25 @@
         <f>E16 * F16</f>
         <v>1449</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="49">
         <f>SUM(H16:H20)</f>
         <v>1769</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="49">
         <v>1769</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="49">
         <f>I16-J16</f>
         <v>0</v>
       </c>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="51"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2070,19 +2069,19 @@
         <f>E17 * F17</f>
         <v>30</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="51"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="49"/>
+        <v>53</v>
+      </c>
+      <c r="C18" s="50"/>
       <c r="D18" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="9">
         <v>80</v>
@@ -2091,25 +2090,25 @@
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="9">
         <f>E18 * F18</f>
         <v>240</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="49"/>
+        <v>117</v>
+      </c>
+      <c r="C19" s="50"/>
       <c r="D19" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="18">
         <v>50</v>
@@ -2118,272 +2117,272 @@
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="18">
         <f>E19 * F19</f>
         <v>50</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18">
         <v>5</v>
       </c>
       <c r="G20" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="20" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="47" t="s">
-        <v>55</v>
+      <c r="A21" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="E21" s="10">
         <v>1336</v>
       </c>
       <c r="F21" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21" s="10">
         <f>E21 * F21</f>
-        <v>1336</v>
-      </c>
-      <c r="I21" s="47">
-        <f>SUM(H21:H23)</f>
-        <v>1454</v>
-      </c>
-      <c r="J21" s="47">
-        <v>1454</v>
-      </c>
-      <c r="K21" s="42">
-        <f>I21-J21</f>
+        <v>2672</v>
+      </c>
+      <c r="I21" s="48">
+        <f>SUM(H21:H22)</f>
+        <v>2790</v>
+      </c>
+      <c r="J21" s="48">
+        <f>SUM(I21:I22)</f>
+        <v>2790</v>
+      </c>
+      <c r="K21" s="53">
         <v>0</v>
       </c>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="43"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="10">
+        <v>118</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="47"/>
-      <c r="B23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="10">
-        <v>10</v>
-      </c>
-      <c r="F23" s="10">
-        <v>13</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="10">
-        <v>118</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="10"/>
+      <c r="A23" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="55" t="s">
-        <v>57</v>
-      </c>
+      <c r="A24" s="59"/>
       <c r="B24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="55"/>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="9"/>
+      <c r="A25" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="53">
+        <v>3380</v>
+      </c>
+      <c r="I25" s="53">
+        <f>SUM(H25:H27)</f>
+        <v>3570</v>
+      </c>
+      <c r="J25" s="53">
+        <v>3570</v>
+      </c>
+      <c r="K25" s="53">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="42" t="s">
-        <v>60</v>
-      </c>
+      <c r="A26" s="54"/>
       <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>146</v>
-      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="42">
-        <v>3380</v>
-      </c>
-      <c r="I26" s="42">
-        <f>SUM(H26:H28)</f>
-        <v>3570</v>
-      </c>
-      <c r="J26" s="42">
-        <v>3570</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>145</v>
-      </c>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="43"/>
-      <c r="B27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="10"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28">
+        <v>190</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28">
-        <v>190</v>
-      </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="28"/>
+      <c r="A28" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="43">
+        <v>1550</v>
+      </c>
+      <c r="F28" s="43">
+        <v>1</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="43">
+        <v>1550</v>
+      </c>
+      <c r="I28" s="43">
+        <v>1550</v>
+      </c>
+      <c r="J28" s="43">
+        <v>550</v>
+      </c>
+      <c r="K28" s="43">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="44" t="s">
-        <v>136</v>
-      </c>
+      <c r="A29" s="44"/>
       <c r="B29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="44">
-        <v>1550</v>
-      </c>
-      <c r="F29" s="44">
-        <v>1</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="44">
-        <v>1550</v>
-      </c>
-      <c r="I29" s="44">
-        <v>1550</v>
-      </c>
-      <c r="J29" s="44">
-        <v>550</v>
-      </c>
-      <c r="K29" s="44">
-        <v>1000</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="45"/>
-      <c r="B30" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="46"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
@@ -2394,120 +2393,128 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="45"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18">
+        <v>329</v>
+      </c>
+      <c r="F31" s="34">
+        <v>1</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="34">
+        <v>329</v>
+      </c>
+      <c r="I31" s="43">
+        <f>SUM(H31:H35)</f>
+        <v>547</v>
+      </c>
+      <c r="J31" s="43">
+        <v>547</v>
+      </c>
+      <c r="K31" s="43">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="44"/>
+      <c r="B32" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="45"/>
-      <c r="B32" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18">
-        <v>329</v>
-      </c>
-      <c r="F32" s="34">
+      <c r="C32" s="50"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41">
+        <v>36</v>
+      </c>
+      <c r="F32" s="41">
         <v>1</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="34">
-        <v>329</v>
-      </c>
-      <c r="I32" s="44">
-        <f>SUM(H32:H36)</f>
-        <v>547</v>
-      </c>
-      <c r="J32" s="44">
-        <v>547</v>
-      </c>
-      <c r="K32" s="44">
-        <v>0</v>
-      </c>
-      <c r="L32" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="H32" s="41">
+        <v>36</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="41"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="45"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="F33" s="41">
         <v>1</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H33" s="41">
-        <v>36</v>
-      </c>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
+        <v>79</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
       <c r="L33" s="41"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="45"/>
-      <c r="B34" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41">
-        <v>79</v>
-      </c>
-      <c r="F34" s="41">
+      <c r="A34" s="44"/>
+      <c r="B34" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18">
+        <v>29</v>
+      </c>
+      <c r="F34" s="34">
         <v>1</v>
       </c>
       <c r="G34" s="41" t="s">
         <v>199</v>
       </c>
       <c r="H34" s="41">
-        <v>79</v>
-      </c>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="45"/>
-      <c r="B35" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="49"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="51"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F35" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="H35" s="41">
-        <v>29</v>
+        <v>199</v>
+      </c>
+      <c r="H35" s="34">
+        <v>74</v>
       </c>
       <c r="I35" s="45"/>
       <c r="J35" s="45"/>
@@ -2515,70 +2522,70 @@
       <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="45"/>
-      <c r="B36" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18">
-        <v>37</v>
+      <c r="A36" s="44"/>
+      <c r="B36" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34">
+        <v>1388</v>
       </c>
       <c r="F36" s="34">
-        <v>2</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="H36" s="34">
-        <v>74</v>
-      </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="18"/>
+        <v>1388</v>
+      </c>
+      <c r="I36" s="49">
+        <v>1468</v>
+      </c>
+      <c r="J36" s="49">
+        <v>1468</v>
+      </c>
+      <c r="K36" s="49">
+        <v>0</v>
+      </c>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="45"/>
-      <c r="B37" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>169</v>
-      </c>
+      <c r="A37" s="44"/>
+      <c r="B37" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="50"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34">
-        <v>1388</v>
+        <v>80</v>
       </c>
       <c r="F37" s="34">
         <v>1</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H37" s="34">
-        <v>1388</v>
-      </c>
-      <c r="I37" s="48">
-        <v>1468</v>
-      </c>
-      <c r="J37" s="48">
-        <v>1468</v>
-      </c>
-      <c r="K37" s="48">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="45"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
@@ -2587,156 +2594,156 @@
         <v>174</v>
       </c>
       <c r="H38" s="34">
-        <v>80</v>
-      </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
+        <v>20</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="45"/>
-      <c r="B39" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34">
-        <v>20</v>
-      </c>
-      <c r="F39" s="34">
-        <v>1</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="34">
-        <v>20</v>
-      </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="34"/>
+      <c r="B39" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="37">
+        <v>39.9</v>
+      </c>
+      <c r="F39" s="37">
+        <v>2</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="I39" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="J39" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="K39" s="36">
+        <v>0</v>
+      </c>
+      <c r="L39" s="37"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="46"/>
-      <c r="B40" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" s="37">
-        <v>39.9</v>
-      </c>
-      <c r="F40" s="37">
-        <v>2</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" s="37">
-        <v>74.8</v>
-      </c>
-      <c r="I40" s="37">
-        <v>74.8</v>
-      </c>
-      <c r="J40" s="37">
-        <v>74.8</v>
-      </c>
-      <c r="K40" s="36">
+      <c r="A40" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="48">
+        <v>200</v>
+      </c>
+      <c r="J40" s="48">
+        <v>200</v>
+      </c>
+      <c r="K40" s="48">
         <v>0</v>
       </c>
-      <c r="L40" s="37"/>
+      <c r="L40" s="40" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="53" t="s">
-        <v>21</v>
-      </c>
+      <c r="A41" s="58"/>
       <c r="B41" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>161</v>
-      </c>
+      <c r="C41" s="48"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="47">
-        <v>200</v>
-      </c>
-      <c r="J41" s="47">
-        <v>200</v>
-      </c>
-      <c r="K41" s="47">
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9">
+        <v>230</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="9">
+        <v>230</v>
+      </c>
+      <c r="I42" s="49">
+        <f>SUM(H42:H47)</f>
+        <v>950</v>
+      </c>
+      <c r="J42" s="49">
+        <v>950</v>
+      </c>
+      <c r="K42" s="49">
         <v>0</v>
       </c>
-      <c r="L41" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="54"/>
-      <c r="B42" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="A43" s="50"/>
+      <c r="B43" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="46"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="F43" s="9">
         <v>1</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H43" s="9">
-        <v>230</v>
-      </c>
-      <c r="I43" s="48">
-        <f>SUM(H43:H48)</f>
-        <v>950</v>
-      </c>
-      <c r="J43" s="48">
-        <v>950</v>
-      </c>
-      <c r="K43" s="48">
-        <v>0</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="49"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
         <v>170</v>
@@ -2745,389 +2752,325 @@
         <v>1</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H44" s="9">
         <v>170</v>
       </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="49"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="9"/>
+        <v>177</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>179</v>
+      </c>
       <c r="E45" s="9">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="F45" s="9">
         <v>1</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H45" s="9">
-        <v>170</v>
-      </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
+        <v>380</v>
+      </c>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="49"/>
-      <c r="B46" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E46" s="9">
-        <v>380</v>
-      </c>
+      <c r="A46" s="50"/>
+      <c r="B46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="9">
         <v>1</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="H46" s="9">
-        <v>380</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
+        <v>202</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="49"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9">
+        <v>2</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="10">
+        <v>140</v>
+      </c>
+      <c r="F48" s="10">
         <v>1</v>
       </c>
-      <c r="G47" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="50"/>
-      <c r="B48" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9">
-        <v>2</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="9"/>
+      <c r="G48" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="10">
+        <v>140</v>
+      </c>
+      <c r="I48" s="31">
+        <v>140</v>
+      </c>
+      <c r="J48" s="31">
+        <v>140</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="10">
-        <v>140</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H49" s="10">
-        <v>140</v>
-      </c>
-      <c r="I49" s="31">
-        <v>140</v>
-      </c>
-      <c r="J49" s="31">
-        <v>140</v>
-      </c>
-      <c r="K49" s="12">
-        <v>0</v>
-      </c>
-      <c r="L49" s="10"/>
+      <c r="B49" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="9">
+        <v>664</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47">
+        <v>2000</v>
+      </c>
+      <c r="K49" s="47"/>
+      <c r="L49" s="43" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="56" t="s">
-        <v>99</v>
-      </c>
+      <c r="A50" s="47"/>
       <c r="B50" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="56" t="s">
-        <v>153</v>
-      </c>
+      <c r="C50" s="47"/>
       <c r="D50" s="34" t="s">
         <v>157</v>
       </c>
       <c r="E50" s="9">
-        <v>664</v>
+        <v>1549</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56">
-        <v>2000</v>
-      </c>
-      <c r="K50" s="56"/>
-      <c r="L50" s="44" t="s">
-        <v>160</v>
-      </c>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="44"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="56"/>
-      <c r="B51" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="56"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="47"/>
       <c r="D51" s="34" t="s">
         <v>158</v>
       </c>
       <c r="E51" s="9">
-        <v>1549</v>
+        <v>966</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="56"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="56"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="9">
-        <v>966</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="46"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="56"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="56"/>
+        <v>99</v>
+      </c>
+      <c r="C53" s="47"/>
       <c r="D53" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="56"/>
-      <c r="B54" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="9"/>
+      <c r="A54" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="57" t="s">
-        <v>104</v>
-      </c>
+      <c r="A55" s="56"/>
       <c r="B55" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="58"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
       <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="57"/>
-      <c r="B56" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="10"/>
+      <c r="A56" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="9"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="23" t="s">
+      <c r="A57" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="23">
-        <f>SUM(I2:I57)</f>
-        <v>19722.8</v>
-      </c>
-      <c r="J58" s="23">
-        <f>SUM(J2:J57)</f>
-        <v>19952.8</v>
-      </c>
-      <c r="K58" s="23">
-        <f>SUM(K2:K57)</f>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="23">
+        <f>SUM(I2:I56)</f>
+        <v>21058.799999999999</v>
+      </c>
+      <c r="J57" s="23">
+        <f>SUM(J2:J56)</f>
+        <v>21288.799999999999</v>
+      </c>
+      <c r="K57" s="23">
+        <f>SUM(K2:K56)</f>
         <v>1770</v>
       </c>
-      <c r="L58" s="23"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="22" t="s">
-        <v>132</v>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="22" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K48"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J43:J48"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="J50:J54"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="I43:I48"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
+  <mergeCells count="74">
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="J12:J15"/>
@@ -3135,19 +3078,58 @@
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="I5:I11"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J42:J47"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3175,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -3205,86 +3187,86 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="59">
+      <c r="E2" s="60">
         <v>5400</v>
       </c>
       <c r="F2" s="38">
         <v>1</v>
       </c>
       <c r="G2" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="60">
+        <v>5400</v>
+      </c>
+      <c r="I2" s="60">
+        <v>14100</v>
+      </c>
+      <c r="J2" s="60">
+        <v>2100</v>
+      </c>
+      <c r="K2" s="60">
+        <v>12000</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="H2" s="59">
-        <v>5400</v>
-      </c>
-      <c r="I2" s="59">
-        <v>14100</v>
-      </c>
-      <c r="J2" s="59">
-        <v>2100</v>
-      </c>
-      <c r="K2" s="59">
-        <v>12000</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="63"/>
+        <v>102</v>
+      </c>
+      <c r="C3" s="64"/>
       <c r="D3" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="61"/>
+        <v>163</v>
+      </c>
+      <c r="E3" s="62"/>
       <c r="F3" s="38">
         <v>2</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+        <v>161</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="64"/>
+        <v>90</v>
+      </c>
+      <c r="C4" s="65"/>
       <c r="D4" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="38">
         <v>8760</v>
@@ -3293,28 +3275,28 @@
         <v>1</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" s="38">
         <v>8700</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>149</v>
-      </c>
       <c r="D5" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="39">
         <v>3400</v>
@@ -3323,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="39">
         <v>4300</v>
@@ -3341,7 +3323,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3357,7 +3339,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3373,7 +3355,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3389,7 +3371,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3464,7 +3446,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -3494,22 +3476,22 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -3517,17 +3499,17 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="35"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="65"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="65"/>
+        <v>76</v>
+      </c>
+      <c r="C3" s="68"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -3535,14 +3517,14 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="35"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3558,7 +3540,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3574,16 +3556,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>187</v>
       </c>
       <c r="E6" s="66">
         <v>2980</v>
@@ -3592,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" s="66">
         <v>2980</v>
@@ -3607,19 +3589,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -3632,7 +3614,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3648,7 +3630,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3664,7 +3646,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="35"/>
@@ -3679,11 +3661,11 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="65" t="s">
-        <v>85</v>
+      <c r="A11" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="2"/>
@@ -3691,22 +3673,22 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="65">
+      <c r="I11" s="68">
         <v>1198</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="68">
         <v>1198</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="65"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -3716,23 +3698,23 @@
         <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H12" s="35">
         <v>1198</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="35">
         <v>0</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3748,11 +3730,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
@@ -3763,6 +3740,11 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3787,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3817,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3845,18 +3827,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -3864,7 +3846,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>280</v>
@@ -3872,7 +3854,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>296</v>
@@ -3880,7 +3862,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -3888,7 +3870,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -3896,7 +3878,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7">
         <v>84</v>

--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="214">
   <si>
     <t>窗户台面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,18 +518,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阳台踢脚线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还没有定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弯头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,6 +819,58 @@
   </si>
   <si>
     <t>盏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台踢脚线,黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广森隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣条（钛金色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣条（实木T-007)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三脚架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,54 +1207,69 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1229,13 +1288,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,16 +1595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.125" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
@@ -1595,13 +1657,13 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="54" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1620,25 +1682,25 @@
         <f t="shared" ref="H2:H15" si="0">E2 * F2</f>
         <v>540</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="54">
         <f>SUM(H2:H4)</f>
         <v>600</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="54">
         <v>600</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="48">
         <f>I2-J2</f>
         <v>0</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="48"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1655,17 +1717,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="48"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
@@ -1682,19 +1744,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="55" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1713,25 +1775,25 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="55">
         <f>SUM(H5:H11)</f>
         <v>3930</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="55">
         <v>3930</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="55">
         <f>I5-J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="46"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1748,17 +1810,17 @@
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="46"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
@@ -1775,17 +1837,17 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="46"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1802,17 +1864,17 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1829,17 +1891,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="46"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1856,19 +1918,19 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="51"/>
+        <v>126</v>
+      </c>
+      <c r="C11" s="57"/>
       <c r="D11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="18">
         <v>15</v>
@@ -1877,25 +1939,25 @@
         <v>2</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1914,25 +1976,25 @@
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="48">
         <f>SUM(H12:H15)</f>
         <v>3470</v>
       </c>
-      <c r="J12" s="53">
-        <v>2700</v>
-      </c>
-      <c r="K12" s="53">
+      <c r="J12" s="48">
+        <v>3470</v>
+      </c>
+      <c r="K12" s="48">
         <f>I12-J12</f>
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="10" t="s">
         <v>35</v>
       </c>
@@ -1949,9 +2011,9 @@
         <f t="shared" si="0"/>
         <v>835</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:14">
@@ -1959,7 +2021,7 @@
       <c r="B14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="19" t="s">
         <v>121</v>
       </c>
@@ -1976,9 +2038,9 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:14">
@@ -1986,7 +2048,7 @@
       <c r="B15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="19" t="s">
         <v>123</v>
       </c>
@@ -2003,19 +2065,19 @@
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="58" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2034,25 +2096,25 @@
         <f>E16 * F16</f>
         <v>1449</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="55">
         <f>SUM(H16:H20)</f>
-        <v>1769</v>
-      </c>
-      <c r="J16" s="49">
-        <v>1769</v>
-      </c>
-      <c r="K16" s="49">
+        <v>1841</v>
+      </c>
+      <c r="J16" s="55">
+        <v>1841</v>
+      </c>
+      <c r="K16" s="55">
         <f>I16-J16</f>
         <v>0</v>
       </c>
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="46"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2069,17 +2131,17 @@
         <f>E17 * F17</f>
         <v>30</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="46"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="9" t="s">
         <v>109</v>
       </c>
@@ -2096,9 +2158,9 @@
         <f>E18 * F18</f>
         <v>240</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12">
@@ -2106,7 +2168,7 @@
       <c r="B19" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="18" t="s">
         <v>117</v>
       </c>
@@ -2123,9 +2185,9 @@
         <f>E19 * F19</f>
         <v>50</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12">
@@ -2133,27 +2195,30 @@
       <c r="B20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="18">
+        <v>8</v>
+      </c>
+      <c r="F20" s="18">
+        <v>9</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18">
-        <v>5</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="H20" s="18">
+        <f>E20 * F20</f>
+        <v>72</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2178,21 +2243,21 @@
         <f>E21 * F21</f>
         <v>2672</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="54">
         <f>SUM(H21:H22)</f>
         <v>2790</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="54">
         <f>SUM(I21:I22)</f>
         <v>2790</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="48">
         <v>0</v>
       </c>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="10" t="s">
         <v>70</v>
       </c>
@@ -2214,9 +2279,9 @@
       <c r="H22" s="10">
         <v>118</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="55"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12">
@@ -2226,15 +2291,26 @@
       <c r="B23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="55" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
+      <c r="E23" s="9">
+        <v>130</v>
+      </c>
+      <c r="F23" s="9">
+        <v>35</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="9">
+        <f>E23*F23</f>
+        <v>4550</v>
+      </c>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
@@ -2242,828 +2318,992 @@
       <c r="B24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="9">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9">
+        <v>35</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="9">
+        <f>E24 * F24</f>
+        <v>420</v>
+      </c>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44">
+        <v>30</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46">
+        <v>200</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="44"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="74"/>
+      <c r="B26" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44">
+        <v>40</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="44"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="74"/>
+      <c r="B27" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44">
+        <v>50</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="44"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="74"/>
+      <c r="B28" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44">
+        <v>3</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C29" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="48">
+        <v>3380</v>
+      </c>
+      <c r="I29" s="48">
+        <f>SUM(H29:H31)</f>
+        <v>3570</v>
+      </c>
+      <c r="J29" s="48">
+        <v>3570</v>
+      </c>
+      <c r="K29" s="48">
+        <v>0</v>
+      </c>
+      <c r="L29" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="53">
-        <v>3380</v>
-      </c>
-      <c r="I25" s="53">
-        <f>SUM(H25:H27)</f>
-        <v>3570</v>
-      </c>
-      <c r="J25" s="53">
-        <v>3570</v>
-      </c>
-      <c r="K25" s="53">
-        <v>0</v>
-      </c>
-      <c r="L25" s="31" t="s">
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="49"/>
+      <c r="B30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="54"/>
-      <c r="B26" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28">
         <v>190</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="43" t="s">
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="51">
+        <v>1550</v>
+      </c>
+      <c r="F32" s="51">
+        <v>1</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="51">
+        <v>1550</v>
+      </c>
+      <c r="I32" s="51">
+        <v>1550</v>
+      </c>
+      <c r="J32" s="51">
+        <v>550</v>
+      </c>
+      <c r="K32" s="51">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="52"/>
+      <c r="B33" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="52"/>
+      <c r="B34" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="52"/>
+      <c r="B35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="43">
-        <v>1550</v>
-      </c>
-      <c r="F28" s="43">
-        <v>1</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="43">
-        <v>1550</v>
-      </c>
-      <c r="I28" s="43">
-        <v>1550</v>
-      </c>
-      <c r="J28" s="43">
-        <v>550</v>
-      </c>
-      <c r="K28" s="43">
-        <v>1000</v>
-      </c>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="44"/>
-      <c r="B29" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="44"/>
-      <c r="B30" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="44"/>
-      <c r="B31" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18">
-        <v>329</v>
-      </c>
-      <c r="F31" s="34">
-        <v>1</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="34">
-        <v>329</v>
-      </c>
-      <c r="I31" s="43">
-        <f>SUM(H31:H35)</f>
-        <v>547</v>
-      </c>
-      <c r="J31" s="43">
-        <v>547</v>
-      </c>
-      <c r="K31" s="43">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="44"/>
-      <c r="B32" s="41" t="s">
+      <c r="C35" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41">
-        <v>36</v>
-      </c>
-      <c r="F32" s="41">
-        <v>1</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="41">
-        <v>36</v>
-      </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="41"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="44"/>
-      <c r="B33" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41">
-        <v>79</v>
-      </c>
-      <c r="F33" s="41">
-        <v>1</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" s="41">
-        <v>79</v>
-      </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="41"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="44"/>
-      <c r="B34" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18">
-        <v>29</v>
-      </c>
-      <c r="F34" s="34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="41">
-        <v>29</v>
-      </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="44"/>
-      <c r="B35" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="51"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="F35" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H35" s="34">
-        <v>74</v>
-      </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+        <v>329</v>
+      </c>
+      <c r="I35" s="51">
+        <f>SUM(H35:H39)</f>
+        <v>547</v>
+      </c>
+      <c r="J35" s="51">
+        <v>547</v>
+      </c>
+      <c r="K35" s="51">
+        <v>0</v>
+      </c>
       <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="44"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41">
+        <v>36</v>
+      </c>
+      <c r="F36" s="41">
+        <v>1</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="41">
+        <v>36</v>
+      </c>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="41"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="52"/>
+      <c r="B37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41">
+        <v>79</v>
+      </c>
+      <c r="F37" s="41">
+        <v>1</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="41">
+        <v>79</v>
+      </c>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="41"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="52"/>
+      <c r="B38" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34">
-        <v>1388</v>
-      </c>
-      <c r="F36" s="34">
-        <v>1</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="34">
-        <v>1388</v>
-      </c>
-      <c r="I36" s="49">
-        <v>1468</v>
-      </c>
-      <c r="J36" s="49">
-        <v>1468</v>
-      </c>
-      <c r="K36" s="49">
-        <v>0</v>
-      </c>
-      <c r="L36" s="34"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="44"/>
-      <c r="B37" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34">
-        <v>80</v>
-      </c>
-      <c r="F37" s="34">
-        <v>1</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" s="34">
-        <v>80</v>
-      </c>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="34"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="44"/>
-      <c r="B38" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34">
-        <v>20</v>
+      <c r="C38" s="56"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18">
+        <v>29</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="41">
+        <v>29</v>
+      </c>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="52"/>
+      <c r="B39" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18">
+        <v>37</v>
+      </c>
+      <c r="F39" s="34">
+        <v>2</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="34">
+        <v>74</v>
+      </c>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="52"/>
+      <c r="B40" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34">
+        <v>1388</v>
+      </c>
+      <c r="F40" s="34">
+        <v>1</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="34">
+        <v>1388</v>
+      </c>
+      <c r="I40" s="55">
+        <v>1468</v>
+      </c>
+      <c r="J40" s="55">
+        <v>1468</v>
+      </c>
+      <c r="K40" s="55">
+        <v>0</v>
+      </c>
+      <c r="L40" s="34"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="52"/>
+      <c r="B41" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34">
+        <v>80</v>
+      </c>
+      <c r="F41" s="34">
+        <v>1</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="34">
+        <v>80</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="34"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="52"/>
+      <c r="B42" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34">
+        <v>20</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="34">
+        <v>20</v>
+      </c>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="34"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="52"/>
+      <c r="B43" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="37">
+        <v>39.9</v>
+      </c>
+      <c r="F43" s="37">
+        <v>2</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="I43" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="J43" s="37">
+        <v>74.8</v>
+      </c>
+      <c r="K43" s="36">
+        <v>0</v>
+      </c>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="52"/>
+      <c r="B44" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="44"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="53"/>
+      <c r="B45" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="44"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="54">
+        <v>200</v>
+      </c>
+      <c r="J46" s="54">
+        <v>200</v>
+      </c>
+      <c r="K46" s="54">
+        <v>0</v>
+      </c>
+      <c r="L46" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="61"/>
+      <c r="B47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="34">
-        <v>20</v>
-      </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="34"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="45"/>
-      <c r="B39" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="37">
-        <v>39.9</v>
-      </c>
-      <c r="F39" s="37">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9">
+        <v>230</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="9">
+        <v>230</v>
+      </c>
+      <c r="I48" s="55">
+        <f>SUM(H48:H53)</f>
+        <v>950</v>
+      </c>
+      <c r="J48" s="55">
+        <v>950</v>
+      </c>
+      <c r="K48" s="55">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="56"/>
+      <c r="B49" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="58"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9">
+        <v>170</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H49" s="9">
+        <v>170</v>
+      </c>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="56"/>
+      <c r="B50" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="58"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9">
+        <v>170</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H50" s="9">
+        <v>170</v>
+      </c>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="56"/>
+      <c r="B51" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="9">
+        <v>380</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="9">
+        <v>380</v>
+      </c>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="56"/>
+      <c r="B52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="57"/>
+      <c r="B53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9">
         <v>2</v>
       </c>
-      <c r="G39" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="37">
-        <v>74.8</v>
-      </c>
-      <c r="I39" s="37">
-        <v>74.8</v>
-      </c>
-      <c r="J39" s="37">
-        <v>74.8</v>
-      </c>
-      <c r="K39" s="36">
+      <c r="G53" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="10">
+        <v>140</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="10">
+        <v>140</v>
+      </c>
+      <c r="I54" s="31">
+        <v>140</v>
+      </c>
+      <c r="J54" s="31">
+        <v>140</v>
+      </c>
+      <c r="K54" s="12">
         <v>0</v>
       </c>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="48">
-        <v>200</v>
-      </c>
-      <c r="J40" s="48">
-        <v>200</v>
-      </c>
-      <c r="K40" s="48">
-        <v>0</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="58"/>
-      <c r="B41" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9">
-        <v>230</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H42" s="9">
-        <v>230</v>
-      </c>
-      <c r="I42" s="49">
-        <f>SUM(H42:H47)</f>
-        <v>950</v>
-      </c>
-      <c r="J42" s="49">
-        <v>950</v>
-      </c>
-      <c r="K42" s="49">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="50"/>
-      <c r="B43" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>170</v>
-      </c>
-      <c r="F43" s="9">
-        <v>1</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="9">
-        <v>170</v>
-      </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="50"/>
-      <c r="B44" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9">
-        <v>170</v>
-      </c>
-      <c r="F44" s="9">
-        <v>1</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H44" s="9">
-        <v>170</v>
-      </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="50"/>
-      <c r="B45" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="9">
-        <v>380</v>
-      </c>
-      <c r="F45" s="9">
-        <v>1</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H45" s="9">
-        <v>380</v>
-      </c>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="50"/>
-      <c r="B46" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9">
-        <v>1</v>
-      </c>
-      <c r="G46" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="51"/>
-      <c r="B47" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9">
-        <v>2</v>
-      </c>
-      <c r="G47" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" s="10">
-        <v>140</v>
-      </c>
-      <c r="F48" s="10">
-        <v>1</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" s="10">
-        <v>140</v>
-      </c>
-      <c r="I48" s="31">
-        <v>140</v>
-      </c>
-      <c r="J48" s="31">
-        <v>140</v>
-      </c>
-      <c r="K48" s="12">
-        <v>0</v>
-      </c>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="47" t="s">
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B55" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="E55" s="9">
         <v>664</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64">
         <v>2000</v>
       </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="47"/>
-      <c r="B50" s="34" t="s">
+      <c r="K55" s="64"/>
+      <c r="L55" s="51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="64"/>
+      <c r="B56" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="E56" s="9">
         <v>1549</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="44"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="47"/>
-      <c r="B51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="9">
-        <v>966</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="45"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="47"/>
-      <c r="B52" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="47"/>
-      <c r="B53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="56"/>
-      <c r="B55" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="10"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="9"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="52"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="9">
+        <v>966</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="53"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="64"/>
+      <c r="B58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="64"/>
+      <c r="D58" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="64"/>
+      <c r="B59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="64"/>
+      <c r="D59" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="63"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="62"/>
+      <c r="B61" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="23">
-        <f>SUM(I2:I56)</f>
-        <v>21058.799999999999</v>
-      </c>
-      <c r="J57" s="23">
-        <f>SUM(J2:J56)</f>
-        <v>21288.799999999999</v>
-      </c>
-      <c r="K57" s="23">
-        <f>SUM(K2:K56)</f>
-        <v>1770</v>
-      </c>
-      <c r="L57" s="23"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="22" t="s">
-        <v>131</v>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="23">
+        <f>SUM(I2:I62)</f>
+        <v>21130.799999999999</v>
+      </c>
+      <c r="J63" s="23">
+        <f>SUM(J2:J62)</f>
+        <v>22330.799999999999</v>
+      </c>
+      <c r="K63" s="23">
+        <f>SUM(K2:K62)</f>
+        <v>1000</v>
+      </c>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="I5:I11"/>
-    <mergeCell ref="J5:J11"/>
-    <mergeCell ref="J23:J24"/>
+  <mergeCells count="71">
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="K55:K59"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
@@ -3078,58 +3318,14 @@
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="J16:J20"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="K49:K53"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J42:J47"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="J5:J11"/>
+    <mergeCell ref="C23:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3142,7 +3338,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3187,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>77</v>
@@ -3202,35 +3398,35 @@
       <c r="B2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>164</v>
+      <c r="C2" s="68" t="s">
+        <v>162</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="60">
+        <v>163</v>
+      </c>
+      <c r="E2" s="65">
         <v>5400</v>
       </c>
       <c r="F2" s="38">
         <v>1</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="60">
+        <v>164</v>
+      </c>
+      <c r="H2" s="65">
         <v>5400</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="65">
         <v>14100</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="65">
         <v>2100</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="65">
         <v>12000</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3240,21 +3436,21 @@
       <c r="B3" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="62"/>
+        <v>161</v>
+      </c>
+      <c r="E3" s="67"/>
       <c r="F3" s="38">
         <v>2</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+        <v>159</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:14">
@@ -3264,9 +3460,9 @@
       <c r="B4" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="38">
         <v>8760</v>
@@ -3275,14 +3471,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" s="38">
         <v>8700</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
       <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:14">
@@ -3290,13 +3486,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" s="39">
         <v>3400</v>
@@ -3305,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="39">
         <v>4300</v>
@@ -3432,7 +3628,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3476,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>77</v>
@@ -3485,13 +3681,13 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="71" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -3499,17 +3695,17 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="35"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -3517,8 +3713,8 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="35"/>
       <c r="L3" s="2"/>
     </row>
@@ -3561,35 +3757,35 @@
       <c r="B6" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>185</v>
+      <c r="C6" s="72" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="72">
+        <v>2980</v>
+      </c>
+      <c r="F6" s="72">
+        <v>1</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="72">
+        <v>2980</v>
+      </c>
+      <c r="I6" s="72">
+        <v>2980</v>
+      </c>
+      <c r="J6" s="72">
+        <v>2980</v>
+      </c>
+      <c r="K6" s="72">
+        <v>0</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="66">
-        <v>2980</v>
-      </c>
-      <c r="F6" s="66">
-        <v>1</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="66">
-        <v>2980</v>
-      </c>
-      <c r="I6" s="66">
-        <v>2980</v>
-      </c>
-      <c r="J6" s="66">
-        <v>2980</v>
-      </c>
-      <c r="K6" s="66">
-        <v>0</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3599,17 +3795,17 @@
       <c r="B7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+        <v>185</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:14">
@@ -3661,11 +3857,11 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="71" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="2"/>
@@ -3673,22 +3869,22 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="68">
+      <c r="I11" s="71">
         <v>1198</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="71">
         <v>1198</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="68"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -3698,18 +3894,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H12" s="35">
         <v>1198</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="35">
         <v>0</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3730,6 +3926,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
@@ -3740,11 +3941,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3846,7 +4042,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>280</v>
@@ -3854,7 +4050,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>296</v>
@@ -3862,7 +4058,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -3870,7 +4066,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -3878,7 +4074,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <v>84</v>
